--- a/SuppXLS/Scen_SepDb-Emission_COM_RSD_MUN.xlsx
+++ b/SuppXLS/Scen_SepDb-Emission_COM_RSD_MUN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E457FC68-29E7-4D89-AB46-2AD91673EEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C7D14-9931-4869-8684-C3A5919C56D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58995" yWindow="375" windowWidth="21600" windowHeight="15960" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COM" sheetId="9" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="206">
   <si>
     <t>UPDATE VALUES</t>
   </si>
@@ -689,6 +689,9 @@
   <si>
     <t>2018, 2019, 2070</t>
   </si>
+  <si>
+    <t>*</t>
+  </si>
 </sst>
 </file>
 
@@ -1033,7 +1036,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1205,9 +1208,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1498,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O218"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K223" sqref="K223"/>
+    <sheetView topLeftCell="A198" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,10 +1552,10 @@
       <c r="K3" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="N3" s="77"/>
+      <c r="N3" s="78"/>
     </row>
     <row r="4" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="str">
@@ -1730,7 +1737,9 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1753,7 +1762,7 @@
       </c>
       <c r="I11" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J11" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2564,7 +2573,9 @@
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="str">
         <f t="shared" si="7"/>
@@ -2587,7 +2598,7 @@
       </c>
       <c r="I35" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J35" s="7" t="str">
         <f t="shared" si="9"/>
@@ -3383,7 +3394,9 @@
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="7"/>
+      <c r="B59" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7" t="str">
         <f t="shared" si="12"/>
@@ -3406,7 +3419,7 @@
       </c>
       <c r="I59" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J59" s="7" t="str">
         <f t="shared" si="11"/>
@@ -4196,7 +4209,9 @@
       <c r="N82" s="7"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B83" s="7"/>
+      <c r="B83" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="str">
         <f t="shared" si="15"/>
@@ -4219,7 +4234,7 @@
       </c>
       <c r="I83" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J83" s="7" t="str">
         <f t="shared" si="14"/>
@@ -5008,8 +5023,10 @@
       </c>
       <c r="N106" s="7"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B107" s="7"/>
+    <row r="107" spans="2:14" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7" t="str">
         <f t="shared" si="18"/>
@@ -5032,7 +5049,7 @@
       </c>
       <c r="I107" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J107" s="7" t="str">
         <f t="shared" si="17"/>
@@ -5042,6 +5059,7 @@
         <f>'COM-MUN-RSD'!L29/1000</f>
         <v>1.5E-3</v>
       </c>
+      <c r="L107" s="4"/>
       <c r="M107" s="7" t="s">
         <v>16</v>
       </c>
@@ -5822,7 +5840,9 @@
       <c r="N130" s="7"/>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B131" s="7"/>
+      <c r="B131" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7" t="str">
         <f t="shared" si="21"/>
@@ -5845,7 +5865,7 @@
       </c>
       <c r="I131" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J131" s="7" t="str">
         <f t="shared" si="20"/>
@@ -6635,7 +6655,9 @@
       <c r="N154" s="7"/>
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B155" s="7"/>
+      <c r="B155" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7" t="str">
         <f t="shared" si="24"/>
@@ -6658,7 +6680,7 @@
       </c>
       <c r="I155" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J155" s="7" t="str">
         <f t="shared" si="23"/>
@@ -7446,7 +7468,9 @@
       <c r="N178" s="7"/>
     </row>
     <row r="179" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B179" s="7"/>
+      <c r="B179" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C179" s="7"/>
       <c r="D179" s="7" t="str">
         <f t="shared" si="27"/>
@@ -7469,7 +7493,7 @@
       </c>
       <c r="I179" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J179" s="7" t="str">
         <f t="shared" si="26"/>
@@ -8259,7 +8283,9 @@
       <c r="N202" s="7"/>
     </row>
     <row r="203" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B203" s="7"/>
+      <c r="B203" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C203" s="7"/>
       <c r="D203" s="7" t="str">
         <f t="shared" si="30"/>
@@ -8282,7 +8308,7 @@
       </c>
       <c r="I203" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J203" s="7" t="str">
         <f t="shared" si="29"/>
@@ -8894,8 +8920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P218"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L210" sqref="L210"/>
+    <sheetView topLeftCell="A196" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9126,7 +9152,9 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="2:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9149,7 +9177,7 @@
       </c>
       <c r="I11" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J11" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9965,7 +9993,9 @@
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9988,7 +10018,7 @@
       </c>
       <c r="I35" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J35" s="7" t="str">
         <f t="shared" si="9"/>
@@ -10784,7 +10814,9 @@
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="7"/>
+      <c r="B59" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7" t="str">
         <f t="shared" si="12"/>
@@ -10807,7 +10839,7 @@
       </c>
       <c r="I59" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J59" s="7" t="str">
         <f t="shared" si="11"/>
@@ -11597,7 +11629,9 @@
       <c r="N82" s="7"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B83" s="7"/>
+      <c r="B83" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="str">
         <f t="shared" si="15"/>
@@ -11620,7 +11654,7 @@
       </c>
       <c r="I83" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J83" s="7" t="str">
         <f t="shared" si="14"/>
@@ -12410,7 +12444,9 @@
       <c r="N106" s="7"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B107" s="7"/>
+      <c r="B107" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7" t="str">
         <f t="shared" si="18"/>
@@ -12433,7 +12469,7 @@
       </c>
       <c r="I107" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J107" s="7" t="str">
         <f t="shared" si="17"/>
@@ -13223,7 +13259,9 @@
       <c r="N130" s="7"/>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B131" s="7"/>
+      <c r="B131" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7" t="str">
         <f t="shared" si="21"/>
@@ -13246,7 +13284,7 @@
       </c>
       <c r="I131" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J131" s="7" t="str">
         <f t="shared" si="20"/>
@@ -14036,7 +14074,9 @@
       <c r="N154" s="7"/>
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B155" s="7"/>
+      <c r="B155" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7" t="str">
         <f t="shared" si="24"/>
@@ -14059,7 +14099,7 @@
       </c>
       <c r="I155" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J155" s="7" t="str">
         <f t="shared" si="23"/>
@@ -14847,7 +14887,9 @@
       <c r="N178" s="7"/>
     </row>
     <row r="179" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B179" s="7"/>
+      <c r="B179" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C179" s="7"/>
       <c r="D179" s="7" t="str">
         <f t="shared" si="27"/>
@@ -14870,7 +14912,7 @@
       </c>
       <c r="I179" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J179" s="7" t="str">
         <f t="shared" si="26"/>
@@ -15660,7 +15702,9 @@
       <c r="N202" s="7"/>
     </row>
     <row r="203" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B203" s="7"/>
+      <c r="B203" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C203" s="7"/>
       <c r="D203" s="7" t="str">
         <f t="shared" si="30"/>
@@ -15683,7 +15727,7 @@
       </c>
       <c r="I203" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J203" s="7" t="str">
         <f t="shared" si="29"/>
@@ -16292,8 +16336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R218"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="Q208" sqref="Q208"/>
+    <sheetView topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16344,10 +16388,10 @@
       <c r="K3" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="N3" s="77"/>
+      <c r="N3" s="78"/>
     </row>
     <row r="4" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="str">
@@ -16530,7 +16574,9 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="2:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="str">
         <f t="shared" si="2"/>
@@ -16553,7 +16599,7 @@
       </c>
       <c r="I11" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J11" s="7" t="str">
         <f t="shared" si="1"/>
@@ -17369,7 +17415,9 @@
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="str">
         <f t="shared" si="8"/>
@@ -17392,7 +17440,7 @@
       </c>
       <c r="I35" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J35" s="7" t="str">
         <f t="shared" si="10"/>
@@ -18188,7 +18236,9 @@
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="7"/>
+      <c r="B59" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7" t="str">
         <f t="shared" si="13"/>
@@ -18211,7 +18261,7 @@
       </c>
       <c r="I59" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J59" s="7" t="str">
         <f t="shared" si="12"/>
@@ -19001,7 +19051,9 @@
       <c r="N82" s="7"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B83" s="7"/>
+      <c r="B83" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="str">
         <f t="shared" si="16"/>
@@ -19024,7 +19076,7 @@
       </c>
       <c r="I83" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J83" s="7" t="str">
         <f t="shared" si="15"/>
@@ -19814,7 +19866,9 @@
       <c r="N106" s="7"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B107" s="7"/>
+      <c r="B107" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7" t="str">
         <f t="shared" si="19"/>
@@ -19837,7 +19891,7 @@
       </c>
       <c r="I107" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J107" s="7" t="str">
         <f t="shared" si="18"/>
@@ -20627,7 +20681,9 @@
       <c r="N130" s="7"/>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B131" s="7"/>
+      <c r="B131" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7" t="str">
         <f t="shared" si="22"/>
@@ -20650,7 +20706,7 @@
       </c>
       <c r="I131" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J131" s="7" t="str">
         <f t="shared" si="21"/>
@@ -21440,7 +21496,9 @@
       <c r="N154" s="7"/>
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B155" s="7"/>
+      <c r="B155" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7" t="str">
         <f t="shared" si="25"/>
@@ -21463,7 +21521,7 @@
       </c>
       <c r="I155" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J155" s="7" t="str">
         <f t="shared" si="24"/>
@@ -22251,7 +22309,9 @@
       <c r="N178" s="7"/>
     </row>
     <row r="179" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B179" s="7"/>
+      <c r="B179" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C179" s="7"/>
       <c r="D179" s="7" t="str">
         <f t="shared" si="28"/>
@@ -22274,7 +22334,7 @@
       </c>
       <c r="I179" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J179" s="7" t="str">
         <f t="shared" si="27"/>
@@ -23064,7 +23124,9 @@
       <c r="N202" s="7"/>
     </row>
     <row r="203" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B203" s="7"/>
+      <c r="B203" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="C203" s="7"/>
       <c r="D203" s="7" t="str">
         <f t="shared" si="31"/>
@@ -23087,7 +23149,7 @@
       </c>
       <c r="I203" s="7" t="str">
         <f>"*"&amp;'COM-MUN-RSD'!C29&amp;"*"</f>
-        <v>*DieselFurnaceDST*</v>
+        <v>*CoalFurnaceCOA*</v>
       </c>
       <c r="J203" s="7" t="str">
         <f t="shared" si="30"/>
@@ -23703,7 +23765,7 @@
   <dimension ref="A2:R67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24414,8 +24476,8 @@
       <c r="B29" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="60" t="s">
-        <v>162</v>
+      <c r="C29" s="77" t="s">
+        <v>197</v>
       </c>
       <c r="D29" s="60" t="s">
         <v>80</v>
@@ -26181,7 +26243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="Q8:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
